--- a/STAILIST-FORTRAN/ASKING/STAI.xlsx
+++ b/STAILIST-FORTRAN/ASKING/STAI.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="118">
   <si>
     <t>positive</t>
     <phoneticPr fontId="1"/>
@@ -789,6 +789,10 @@
     <rPh sb="0" eb="2">
       <t>カイテキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I am 'calm, cool and coollected'</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1538,7 +1542,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="F3" sqref="F3:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1719,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="F9" t="s">
         <v>79</v>
@@ -1988,5 +1992,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>